--- a/Drafts/pymc3/Full Conversion Approach.xlsx
+++ b/Drafts/pymc3/Full Conversion Approach.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMalz\Desktop\Repos\wt_modeling\Drafts\lmfit_biocatalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SMalz\Desktop\Repos\wt_modeling\Drafts\pymc3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8FC456-0646-4310-BF0D-E37321A16852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098E7782-652C-41EF-AFC4-A4691069C5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="3230" windowWidth="22030" windowHeight="17060" tabRatio="740" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="8250" windowWidth="29040" windowHeight="15840" tabRatio="740" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Full_Conversion" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="142">
   <si>
     <t>HPLC</t>
   </si>
@@ -472,6 +472,12 @@
   </si>
   <si>
     <t>time in min</t>
+  </si>
+  <si>
+    <t>3-OH-BA-forged-1</t>
+  </si>
+  <si>
+    <t>3-OH-BA-forged-2</t>
   </si>
 </sst>
 </file>
@@ -12630,61 +12636,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ON Lights</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -12694,6 +12645,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>normal</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -12718,10 +12672,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Full_Conversion_50mL_10mM_BA!$B$42:$B$58</c:f>
+              <c:f>'10mL_viualisation'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12754,84 +12708,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Full_Conversion_50mL_10mM_BA!$C$42:$C$58</c:f>
+              <c:f>'10mL_viualisation'!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10.891256510250722</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4367000000000001</c:v>
+                  <c:v>8.9778162941061517</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1114999999999999</c:v>
+                  <c:v>7.3062642843184733</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7297000000000002</c:v>
+                  <c:v>5.7319093620166699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4181999999999997</c:v>
+                  <c:v>4.3499944774382104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3945999999999996</c:v>
+                  <c:v>3.1462034511763051</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.1103000000000005</c:v>
+                  <c:v>2.1889735681696529</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3522999999999996</c:v>
+                  <c:v>1.4283044036058079</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.8963999999999999</c:v>
+                  <c:v>0.92770541805792739</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.1502</c:v>
+                  <c:v>0.51440539002030594</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.692</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.6844</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.844200000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.731299999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.0664</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.7921</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.269299999999999</c:v>
+                  <c:v>0.30357097341523714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12839,13 +12757,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-494D-4E64-ACF5-FB34ECF476E5}"/>
+              <c16:uniqueId val="{00000000-BC27-4E87-AB39-0C76E19D212E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Zufallszahl 1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -12870,10 +12791,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Full_Conversion_50mL_10mM_BA!$B$42:$B$58</c:f>
+              <c:f>'10mL_viualisation'!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12906,84 +12827,48 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Full_Conversion_50mL_10mM_BA!$D$42:$D$58</c:f>
+              <c:f>'10mL_viualisation'!$D$2:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>14.2326</c:v>
+                  <c:v>11.22015639024846</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.7583</c:v>
+                  <c:v>9.6229996923742966</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.387600000000001</c:v>
+                  <c:v>8.2118334376601361</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.9296000000000006</c:v>
+                  <c:v>6.4413146548482816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6971999999999996</c:v>
+                  <c:v>4.7272104250603126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.9443000000000001</c:v>
+                  <c:v>3.3892990587087946</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.649</c:v>
+                  <c:v>2.2343371858081911</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7719</c:v>
+                  <c:v>1.7957468470780105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9249000000000001</c:v>
+                  <c:v>1.6440269042692766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3431000000000002</c:v>
+                  <c:v>0.7074994552885141</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5642</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.8559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.0696999999999992</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.8898999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.0155999999999992</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.7484999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.7530000000000001</c:v>
+                  <c:v>0.45923577201722282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12991,7 +12876,126 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-494D-4E64-ACF5-FB34ECF476E5}"/>
+              <c16:uniqueId val="{00000002-BC27-4E87-AB39-0C76E19D212E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Zufallszahl 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'10mL_viualisation'!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'10mL_viualisation'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10.713345706900725</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.28287692926272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4845334730193942</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5606662031790615</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1680469136476699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.192518409314522</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5226887725029576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1389102462280412</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.2949242167293566E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.32954054595871751</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.29642506803396046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BC27-4E87-AB39-0C76E19D212E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13003,14 +13007,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="755836255"/>
-        <c:axId val="755848319"/>
+        <c:axId val="1846771168"/>
+        <c:axId val="2111328064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="755836255"/>
+        <c:axId val="1846771168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="7.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -13065,12 +13068,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="755848319"/>
+        <c:crossAx val="2111328064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="755848319"/>
+        <c:axId val="2111328064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13127,7 +13130,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="755836255"/>
+        <c:crossAx val="1846771168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13819,6 +13822,573 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>ON Lights</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Full_Conversion_50mL_10mM_BA!$B$42:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Full_Conversion_50mL_10mM_BA!$C$42:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4367000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1114999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7297000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4181999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3945999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1103000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3522999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8963999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.1502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.692</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.6844</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.844200000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.731299999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.0664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.7921</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.269299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-494D-4E64-ACF5-FB34ECF476E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Full_Conversion_50mL_10mM_BA!$B$42:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>23.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Full_Conversion_50mL_10mM_BA!$D$42:$D$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>14.2326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.7583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.387600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9296000000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6971999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9443000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.649</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7719</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9249000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3431000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5642</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0696999999999992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8898999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.0155999999999992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7484999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7530000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-494D-4E64-ACF5-FB34ECF476E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755836255"/>
+        <c:axId val="755848319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755836255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755848319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="755848319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755836255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>OFF Lights</a:t>
             </a:r>
           </a:p>
@@ -14352,7 +14922,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -14794,7 +15364,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -15387,7 +15957,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -15955,7 +16525,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -16349,7 +16919,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -16911,791 +17481,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-53EE-4725-8DCF-8906609CB7C7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="755836255"/>
-        <c:axId val="755848319"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="755836255"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="7.5"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="755848319"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="755848319"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="755836255"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>OFF Lights</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>3-OH-PAC</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(Full_Conversion_50mL_10mM_BA_Du!$B$41:$B$66,Full_Conversion_50mL_10mM_BA_Du!$B$69:$B$74)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>23.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Full_Conversion_50mL_10mM_BA_Du!$E$41:$E$66,Full_Conversion_50mL_10mM_BA_Du!$E$69:$E$74)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4367000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.8988999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.1114999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.5869</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.7297000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.6507000000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.4181999999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.8628</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.3945999999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.7448</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.1103000000000005</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.6411</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.3522999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.154999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.8963999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.378399999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11.1502</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>11.824</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>10.692</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.7387</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10.4664</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11.027900000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11.235799999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.894299999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11.9168</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12.196199999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11.733599999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.1286</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>17.088100000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>17.274899999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DCE9-4A65-A4D8-F9964D2CB4CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>3-OH-BA</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(Full_Conversion_50mL_10mM_BA_Du!$B$41:$B$66,Full_Conversion_50mL_10mM_BA_Du!$B$69:$B$74)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>23.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>23.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(Full_Conversion_50mL_10mM_BA_Du!$F$41:$F$66,Full_Conversion_50mL_10mM_BA_Du!$F$69:$F$74)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>14.2326</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.8947</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.7583</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3697999999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.387600000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.6905999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.9296000000000006</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6065</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.6971999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.82010000000000005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.9443000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.17829999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.649</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.9499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.7719</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9249000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.3431000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.5642</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.2892999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.9648000000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.1413000000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.1776999999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.1986999999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.2129000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.5928000000000004</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.0932000000000004</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DCE9-4A65-A4D8-F9964D2CB4CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17954,6 +17739,791 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>OFF Lights</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>3-OH-PAC</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Full_Conversion_50mL_10mM_BA_Du!$B$41:$B$66,Full_Conversion_50mL_10mM_BA_Du!$B$69:$B$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Full_Conversion_50mL_10mM_BA_Du!$E$41:$E$66,Full_Conversion_50mL_10mM_BA_Du!$E$69:$E$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4367000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8988999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1114999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.5869</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7297000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.6507000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4181999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.8628</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3945999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.7448</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1103000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.6411</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3522999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.154999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.8963999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.378399999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.1502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.824</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.692</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.7387</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.4664</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.027900000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.235799999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.894299999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.9168</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.196199999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.733599999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.1286</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.088100000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.274899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCE9-4A65-A4D8-F9964D2CB4CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3-OH-BA</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Full_Conversion_50mL_10mM_BA_Du!$B$41:$B$66,Full_Conversion_50mL_10mM_BA_Du!$B$69:$B$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Full_Conversion_50mL_10mM_BA_Du!$F$41:$F$66,Full_Conversion_50mL_10mM_BA_Du!$F$69:$F$74)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>14.2326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.8947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.7583</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3697999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.387600000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6905999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9296000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6065</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6971999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9443000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17829999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.649</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9499999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.7719</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9249000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3431000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5642</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.2892999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.9648000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.1413000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.1776999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.1986999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.2129000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5928000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.0932000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DCE9-4A65-A4D8-F9964D2CB4CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="755836255"/>
+        <c:axId val="755848319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="755836255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755848319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="755848319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="755836255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>ON Lights</a:t>
             </a:r>
           </a:p>
@@ -18802,7 +19372,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -23505,6 +24075,46 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -26961,6 +27571,522 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -31808,6 +32934,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5763EA7E-2915-406C-8B4A-90705318A722}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>40</xdr:row>
@@ -31923,7 +33090,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -38707,22 +39874,22 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72E0C6D2-3587-46E2-8F2A-AE03A33D313A}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="17.1796875" customWidth="1"/>
     <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
     <col min="5" max="5" width="16.54296875" customWidth="1"/>
     <col min="6" max="7" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>139</v>
       </c>
@@ -38732,20 +39899,26 @@
       <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -38756,19 +39929,27 @@
         <v>10.891256510250722</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f ca="1">C2+RAND()</f>
+        <v>11.22015639024846</v>
       </c>
       <c r="E2">
+        <f ca="1">C2-RAND()</f>
+        <v>10.713345706900725</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>2.7853204001645853E-2</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>5.9094098607480265E-2</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -38778,20 +39959,28 @@
       <c r="C3">
         <v>8.9778162941061517</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="27">
+        <f t="shared" ref="D3:D23" ca="1" si="0">C3+RAND()</f>
+        <v>9.6229996923742966</v>
+      </c>
+      <c r="E3" s="27">
+        <f t="shared" ref="E3:E23" ca="1" si="1">C3-RAND()</f>
+        <v>8.28287692926272</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>7.7990543580988683E-2</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>9.3237989951638275E-2</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -38801,20 +39990,28 @@
       <c r="C4">
         <v>7.3062642843184733</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.2118334376601361</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>6.4845334730193942</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>0.1439578584020334</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>0.11454932691387852</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.5</v>
       </c>
@@ -38824,20 +40021,28 @@
       <c r="C5">
         <v>5.7319093620166699</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.4413146548482816</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5606662031790615</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0.14339445620171748</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>0.13128628448133317</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
@@ -38847,20 +40052,28 @@
       <c r="C6">
         <v>4.3499944774382104</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7272104250603126</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.1680469136476699</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0.24000824829180223</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>0.170336945068435</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.5</v>
       </c>
@@ -38870,20 +40083,28 @@
       <c r="C7">
         <v>3.1462034511763051</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3892990587087946</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.192518409314522</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>0.22315550496401262</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>0.22836547994100567</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -38893,20 +40114,28 @@
       <c r="C8">
         <v>2.1889735681696529</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2343371858081911</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.5226887725029576</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>0.10700627594494602</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>0.14582888089411933</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.5</v>
       </c>
@@ -38916,20 +40145,28 @@
       <c r="C9">
         <v>1.4283044036058079</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7957468470780105</v>
+      </c>
+      <c r="E9" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1389102462280412</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>5.6271743839926794E-2</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>0.14209292388120481</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4</v>
       </c>
@@ -38939,20 +40176,28 @@
       <c r="C10">
         <v>0.92770541805792739</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6440269042692766</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-4.2949242167293566E-2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0.2338473546277641</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>0.10625095991762119</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4.5</v>
       </c>
@@ -38962,20 +40207,28 @@
       <c r="C11">
         <v>0.51440539002030594</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.7074994552885141</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.32954054595871751</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>0.18971921333135022</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>0.10393177773712912</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5</v>
       </c>
@@ -38985,20 +40238,28 @@
       <c r="C12">
         <v>0.30357097341523714</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45923577201722282</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.29642506803396046</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>0.17040871816322112</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>3.290221067812988E-2</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5.5</v>
       </c>
@@ -39008,20 +40269,28 @@
       <c r="C13">
         <v>5.2848367445772695</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.5711308087829545</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1981086871952797</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>0.27512432157560085</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>0.2121935868015736</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>6</v>
       </c>
@@ -39031,20 +40300,28 @@
       <c r="C14">
         <v>4.9426078386392405</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3020614095717198</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2384172043491688</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>0.21678518103316721</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>0.18851984072470893</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>6.5</v>
       </c>
@@ -39054,20 +40331,28 @@
       <c r="C15">
         <v>4.5186025369799232</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5208973237732675</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.1515640937711806</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>0.42272125239671926</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>0.33226970118557109</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>7</v>
       </c>
@@ -39077,20 +40362,28 @@
       <c r="C16">
         <v>4.3102107919353596</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8256625586743862</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>4.2436540864837902</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>0.20208846198232375</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>6.4252942036805871E-2</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>7.5</v>
       </c>
@@ -39100,20 +40393,28 @@
       <c r="C17">
         <v>3.8507124104707771</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.6287109506898299</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.2761080814807104</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>9.2072284188785547E-2</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>0.19908473455131254</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>8</v>
       </c>
@@ -39123,20 +40424,28 @@
       <c r="C18">
         <v>3.497480862199339</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9886513462454993</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6622153380602667</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>6.7939779860937549E-2</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>0.17420818751336173</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>8.5</v>
       </c>
@@ -39146,20 +40455,28 @@
       <c r="C19">
         <v>3.1638331676564797</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.3277568770893078</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5203370440543535</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>0.20637071847297814</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>0.1745984886714185</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>9</v>
       </c>
@@ -39169,20 +40486,28 @@
       <c r="C20">
         <v>2.9018513326366411</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.043351320126872</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8518187232932135</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>9.8506379823032425E-2</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>0.18305518249589103</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>9.5</v>
       </c>
@@ -39192,20 +40517,28 @@
       <c r="C21">
         <v>2.6208379000671207</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.2902288147165835</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2044459719495024</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>0.55497412210953612</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>0.19170817967256612</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>10</v>
       </c>
@@ -39215,20 +40548,28 @@
       <c r="C22">
         <v>2.2801808001767219</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9840032741142624</v>
+      </c>
+      <c r="E22" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.590658311516556</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>8.7679655838270643E-2</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>0.14552089674817872</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>23.33</v>
       </c>
@@ -39238,21 +40579,66 @@
       <c r="C23">
         <v>9.0102719649274826E-2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="27">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20508925285781207</v>
+      </c>
+      <c r="E23" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.63891445261089586</v>
+      </c>
+      <c r="F23">
         <v>0.36318429725551959</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>6.6081752755977954E-2</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>1.1354657358538085E-2</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>2.7841285461015775E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <f ca="1">RAND()*2</f>
+        <v>1.1814598031143091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D32" s="27">
+        <f t="shared" ref="D32:D36" ca="1" si="2">RAND()*2</f>
+        <v>0.70544610505063132</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.30582468420974274</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.20892025039427109</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96584564901903036</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="27">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1804640782964151</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
